--- a/biology/Biochimie/Méthyleugénol/Méthyleugénol.xlsx
+++ b/biology/Biochimie/Méthyleugénol/Méthyleugénol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thyleug%C3%A9nol</t>
+          <t>Méthyleugénol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le méthyleugénol est un composé organique aromatique présent dans les huiles essentielles.
 Il appartient à la famille des phénylpropènes, un sous-groupe des phénylpropanoïdes.
-On le retrouve dans les huiles essentielles de fenouil, de rose, de basilic, d'anis, de piment de la Jamaïque, de noix de muscade, de laurier sauce, de plante curry[5], de magnolia (op. feuilles, Michelia alba) ou de Bay Saint Thomas (Pimenta racemosa).
+On le retrouve dans les huiles essentielles de fenouil, de rose, de basilic, d'anis, de piment de la Jamaïque, de noix de muscade, de laurier sauce, de plante curry, de magnolia (op. feuilles, Michelia alba) ou de Bay Saint Thomas (Pimenta racemosa).
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thyleug%C3%A9nol</t>
+          <t>Méthyleugénol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Propriétés[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méthyleugénol est, en conditions normales, un liquide incolore ou très légèrement jaunâtre et à l'odeur agréable. Il est volatil, très peu inflammable et presque insoluble dans l'eau.
 </t>
